--- a/test/2021日历表.xlsx
+++ b/test/2021日历表.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\note\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687E869-E798-4C1F-A462-C249B7117490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="135">
   <si>
     <t>CW</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -512,11 +515,217 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>小寒</t>
+  </si>
+  <si>
+    <t>腊八节</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初十 </t>
+  </si>
+  <si>
+    <t>大寒</t>
+  </si>
+  <si>
+    <t>小年</t>
+  </si>
+  <si>
+    <t>除夕</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>立春</t>
+  </si>
+  <si>
+    <t>雨水</t>
+  </si>
+  <si>
+    <t>龙抬头</t>
+  </si>
+  <si>
+    <t>惊蛰</t>
+  </si>
+  <si>
+    <t>愚人节</t>
+  </si>
+  <si>
+    <t>妇女节</t>
+  </si>
+  <si>
+    <t>清明</t>
+  </si>
+  <si>
+    <t>春分</t>
+  </si>
+  <si>
+    <t>谷雨</t>
+  </si>
+  <si>
+    <t>端午节</t>
+  </si>
+  <si>
+    <t>立夏</t>
+  </si>
+  <si>
+    <t>母亲节</t>
+  </si>
+  <si>
+    <t>芒种</t>
+  </si>
+  <si>
+    <t>父亲节</t>
+  </si>
+  <si>
+    <t>小满</t>
+  </si>
+  <si>
+    <t>夏至</t>
+  </si>
+  <si>
+    <t>初一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建党节</t>
+  </si>
+  <si>
+    <t>建军节</t>
+  </si>
+  <si>
+    <t>七夕</t>
+  </si>
+  <si>
+    <t>立秋</t>
+  </si>
+  <si>
+    <t>小暑</t>
+  </si>
+  <si>
+    <t>大暑</t>
+  </si>
+  <si>
+    <t>处暑</t>
+  </si>
+  <si>
+    <t>白露</t>
+  </si>
+  <si>
+    <t>中秋节</t>
+  </si>
+  <si>
+    <t>秋分</t>
+  </si>
+  <si>
+    <t>重阳节</t>
+  </si>
+  <si>
+    <t>寒露</t>
+  </si>
+  <si>
+    <t>立冬</t>
+  </si>
+  <si>
+    <t>大雪</t>
+  </si>
+  <si>
+    <t>霜降</t>
+  </si>
+  <si>
+    <t>小雪</t>
+  </si>
+  <si>
+    <t>平安夜</t>
+  </si>
+  <si>
+    <t>元宵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青年节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>圣诞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="????"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建党</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>儿童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="????"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -780,7 +989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,12 +1053,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,6 +1077,51 @@
     <xf numFmtId="57" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,28 +1140,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,11 +1449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25:R26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1724,36 +1978,36 @@
   <sheetData>
     <row r="1" spans="2:27" ht="3.75" customHeight="1"/>
     <row r="2" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>44197</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="K2" s="30">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="K2" s="28">
         <v>44228</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="T2" s="30">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="T2" s="28">
         <v>44256</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
     </row>
     <row r="3" spans="2:27" ht="11.25" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -1830,19 +2084,19 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="29">
         <v>5</v>
       </c>
       <c r="L4" s="6">
@@ -1866,10 +2120,10 @@
       <c r="R4" s="6">
         <v>6</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="29">
         <v>9</v>
       </c>
-      <c r="U4" s="23"/>
+      <c r="U4" s="29"/>
       <c r="V4" s="7">
         <v>1</v>
       </c>
@@ -1890,19 +2144,19 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1924,8 +2178,8 @@
       <c r="R5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
       <c r="V5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1946,7 +2200,7 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>1</v>
       </c>
       <c r="C6" s="6">
@@ -1970,7 +2224,7 @@
       <c r="I6" s="6">
         <v>9</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="29">
         <v>6</v>
       </c>
       <c r="L6" s="6">
@@ -1994,7 +2248,7 @@
       <c r="R6" s="6">
         <v>13</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="29">
         <v>10</v>
       </c>
       <c r="U6" s="6">
@@ -2020,7 +2274,7 @@
       </c>
     </row>
     <row r="7" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
@@ -2042,7 +2296,7 @@
       <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2064,7 +2318,7 @@
       <c r="R7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="23"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2088,7 +2342,7 @@
       </c>
     </row>
     <row r="8" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>2</v>
       </c>
       <c r="C8" s="6">
@@ -2112,7 +2366,7 @@
       <c r="I8" s="6">
         <v>16</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="29">
         <v>7</v>
       </c>
       <c r="L8" s="6">
@@ -2136,7 +2390,7 @@
       <c r="R8" s="6">
         <v>20</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="29">
         <v>11</v>
       </c>
       <c r="U8" s="6">
@@ -2162,7 +2416,7 @@
       </c>
     </row>
     <row r="9" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B9" s="38"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
@@ -2184,7 +2438,7 @@
       <c r="I9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="23"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="17" t="s">
         <v>31</v>
       </c>
@@ -2206,7 +2460,7 @@
       <c r="R9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="23"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="18" t="s">
         <v>24</v>
       </c>
@@ -2230,7 +2484,7 @@
       </c>
     </row>
     <row r="10" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>3</v>
       </c>
       <c r="C10" s="6">
@@ -2254,7 +2508,7 @@
       <c r="I10" s="6">
         <v>23</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="29">
         <v>8</v>
       </c>
       <c r="L10" s="6">
@@ -2278,7 +2532,7 @@
       <c r="R10" s="6">
         <v>27</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="29">
         <v>12</v>
       </c>
       <c r="U10" s="6">
@@ -2304,7 +2558,7 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B11" s="38"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
@@ -2326,7 +2580,7 @@
       <c r="I11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="9" t="s">
         <v>39</v>
       </c>
@@ -2348,7 +2602,7 @@
       <c r="R11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="23"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="9" t="s">
         <v>36</v>
       </c>
@@ -2372,7 +2626,7 @@
       </c>
     </row>
     <row r="12" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>4</v>
       </c>
       <c r="C12" s="6">
@@ -2396,17 +2650,17 @@
       <c r="I12" s="13">
         <v>30</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="6">
         <v>28</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="26"/>
-      <c r="T12" s="23">
+      <c r="M12" s="38"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="T12" s="29">
         <v>13</v>
       </c>
       <c r="U12" s="6">
@@ -2421,12 +2675,12 @@
       <c r="X12" s="7">
         <v>31</v>
       </c>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="26"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40"/>
     </row>
     <row r="13" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B13" s="38"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="18" t="s">
         <v>41</v>
       </c>
@@ -2448,17 +2702,17 @@
       <c r="I13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="T13" s="23"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="9" t="s">
         <v>45</v>
       </c>
@@ -2471,42 +2725,42 @@
       <c r="X13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="29"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
     </row>
     <row r="14" spans="2:27" ht="7.5" customHeight="1"/>
     <row r="15" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <v>44287</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="K15" s="30">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="K15" s="28">
         <v>44317</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="T15" s="30">
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="T15" s="28">
         <v>44348</v>
       </c>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="2:27" ht="11.25" customHeight="1">
       <c r="B16" s="2" t="s">
@@ -2583,11 +2837,11 @@
       </c>
     </row>
     <row r="17" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="7">
         <v>1</v>
       </c>
@@ -2597,7 +2851,7 @@
       <c r="I17" s="6">
         <v>3</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="29">
         <v>18</v>
       </c>
       <c r="L17" s="6">
@@ -2621,11 +2875,11 @@
       <c r="R17" s="19">
         <v>8</v>
       </c>
-      <c r="T17" s="23">
+      <c r="T17" s="29">
         <v>22</v>
       </c>
-      <c r="U17" s="24"/>
-      <c r="V17" s="26"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="40"/>
       <c r="W17" s="7">
         <v>1</v>
       </c>
@@ -2643,11 +2897,11 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B18" s="23"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="10" t="s">
         <v>10</v>
       </c>
@@ -2657,7 +2911,7 @@
       <c r="I18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="9" t="s">
         <v>11</v>
       </c>
@@ -2679,9 +2933,9 @@
       <c r="R18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T18" s="23"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="43"/>
       <c r="W18" s="16" t="s">
         <v>49</v>
       </c>
@@ -2699,7 +2953,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B19" s="23">
+      <c r="B19" s="29">
         <v>14</v>
       </c>
       <c r="C19" s="6">
@@ -2723,7 +2977,7 @@
       <c r="I19" s="6">
         <v>10</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="29">
         <v>19</v>
       </c>
       <c r="L19" s="6">
@@ -2747,7 +3001,7 @@
       <c r="R19" s="19">
         <v>15</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="29">
         <v>23</v>
       </c>
       <c r="U19" s="6">
@@ -2773,7 +3027,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B20" s="23"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="15" t="s">
         <v>50</v>
       </c>
@@ -2795,7 +3049,7 @@
       <c r="I20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="29"/>
       <c r="L20" s="9" t="s">
         <v>51</v>
       </c>
@@ -2817,7 +3071,7 @@
       <c r="R20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T20" s="23"/>
+      <c r="T20" s="29"/>
       <c r="U20" s="9" t="s">
         <v>18</v>
       </c>
@@ -2841,7 +3095,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B21" s="23">
+      <c r="B21" s="29">
         <v>15</v>
       </c>
       <c r="C21" s="6">
@@ -2865,7 +3119,7 @@
       <c r="I21" s="6">
         <v>17</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="29">
         <v>20</v>
       </c>
       <c r="L21" s="6">
@@ -2889,7 +3143,7 @@
       <c r="R21" s="19">
         <v>22</v>
       </c>
-      <c r="T21" s="37">
+      <c r="T21" s="36">
         <v>24</v>
       </c>
       <c r="U21" s="6">
@@ -2915,7 +3169,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B22" s="23"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2937,7 +3191,7 @@
       <c r="I22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="23"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="9" t="s">
         <v>32</v>
       </c>
@@ -2959,7 +3213,7 @@
       <c r="R22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T22" s="38"/>
+      <c r="T22" s="37"/>
       <c r="U22" s="9" t="s">
         <v>30</v>
       </c>
@@ -2983,7 +3237,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B23" s="23">
+      <c r="B23" s="29">
         <v>16</v>
       </c>
       <c r="C23" s="6">
@@ -3007,7 +3261,7 @@
       <c r="I23" s="6">
         <v>24</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="29">
         <v>21</v>
       </c>
       <c r="L23" s="6">
@@ -3031,7 +3285,7 @@
       <c r="R23" s="7">
         <v>29</v>
       </c>
-      <c r="T23" s="37">
+      <c r="T23" s="36">
         <v>25</v>
       </c>
       <c r="U23" s="6">
@@ -3057,7 +3311,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B24" s="23"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="9" t="s">
         <v>34</v>
       </c>
@@ -3079,7 +3333,7 @@
       <c r="I24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="9" t="s">
         <v>41</v>
       </c>
@@ -3101,7 +3355,7 @@
       <c r="R24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T24" s="38"/>
+      <c r="T24" s="37"/>
       <c r="U24" s="9" t="s">
         <v>57</v>
       </c>
@@ -3125,7 +3379,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B25" s="23">
+      <c r="B25" s="29">
         <v>17</v>
       </c>
       <c r="C25" s="6">
@@ -3149,7 +3403,7 @@
       <c r="I25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="29">
         <v>22</v>
       </c>
       <c r="L25" s="6">
@@ -3158,12 +3412,12 @@
       <c r="M25" s="7">
         <v>31</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="26"/>
-      <c r="T25" s="23">
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+      <c r="T25" s="29">
         <v>26</v>
       </c>
       <c r="U25" s="6">
@@ -3178,12 +3432,12 @@
       <c r="X25" s="7">
         <v>30</v>
       </c>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="26"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="40"/>
     </row>
     <row r="26" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B26" s="23"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
@@ -3205,19 +3459,19 @@
       <c r="I26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="23"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="29"/>
-      <c r="T26" s="23"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+      <c r="T26" s="29"/>
       <c r="U26" s="9" t="s">
         <v>16</v>
       </c>
@@ -3230,42 +3484,42 @@
       <c r="X26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="29"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="43"/>
     </row>
     <row r="27" spans="2:27" ht="8.25" customHeight="1"/>
     <row r="28" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B28" s="30">
+      <c r="B28" s="28">
         <v>44378</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="K28" s="30">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="28">
         <v>44409</v>
       </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="T28" s="30">
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="T28" s="28">
         <v>44440</v>
       </c>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
     </row>
     <row r="29" spans="2:27" ht="11.25" customHeight="1">
       <c r="B29" s="2" t="s">
@@ -3342,13 +3596,13 @@
       </c>
     </row>
     <row r="30" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B30" s="23">
+      <c r="B30" s="29">
         <v>26</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="7">
         <v>1</v>
       </c>
@@ -3358,7 +3612,7 @@
       <c r="I30" s="6">
         <v>3</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="29">
         <v>31</v>
       </c>
       <c r="L30" s="13">
@@ -3382,12 +3636,12 @@
       <c r="R30" s="6">
         <v>7</v>
       </c>
-      <c r="T30" s="23">
+      <c r="T30" s="29">
         <v>35</v>
       </c>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="26"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="40"/>
       <c r="X30" s="7">
         <v>1</v>
       </c>
@@ -3402,11 +3656,11 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B31" s="23"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
       <c r="G31" s="16" t="s">
         <v>60</v>
       </c>
@@ -3416,7 +3670,7 @@
       <c r="I31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="23"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="17" t="s">
         <v>61</v>
       </c>
@@ -3438,10 +3692,10 @@
       <c r="R31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T31" s="23"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="43"/>
       <c r="X31" s="10" t="s">
         <v>15</v>
       </c>
@@ -3456,7 +3710,7 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>27</v>
       </c>
       <c r="C32" s="6">
@@ -3480,7 +3734,7 @@
       <c r="I32" s="6">
         <v>10</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="29">
         <v>32</v>
       </c>
       <c r="L32" s="6">
@@ -3504,7 +3758,7 @@
       <c r="R32" s="6">
         <v>14</v>
       </c>
-      <c r="T32" s="23">
+      <c r="T32" s="29">
         <v>36</v>
       </c>
       <c r="U32" s="6">
@@ -3530,7 +3784,7 @@
       </c>
     </row>
     <row r="33" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B33" s="38"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="9" t="s">
         <v>15</v>
       </c>
@@ -3552,7 +3806,7 @@
       <c r="I33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K33" s="23"/>
+      <c r="K33" s="29"/>
       <c r="L33" s="9" t="s">
         <v>63</v>
       </c>
@@ -3574,7 +3828,7 @@
       <c r="R33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T33" s="23"/>
+      <c r="T33" s="29"/>
       <c r="U33" s="9" t="s">
         <v>21</v>
       </c>
@@ -3598,7 +3852,7 @@
       </c>
     </row>
     <row r="34" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>28</v>
       </c>
       <c r="C34" s="6">
@@ -3622,7 +3876,7 @@
       <c r="I34" s="6">
         <v>17</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="29">
         <v>33</v>
       </c>
       <c r="L34" s="6">
@@ -3646,7 +3900,7 @@
       <c r="R34" s="6">
         <v>21</v>
       </c>
-      <c r="T34" s="23">
+      <c r="T34" s="29">
         <v>37</v>
       </c>
       <c r="U34" s="6">
@@ -3672,7 +3926,7 @@
       </c>
     </row>
     <row r="35" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B35" s="38"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="9" t="s">
         <v>24</v>
       </c>
@@ -3694,7 +3948,7 @@
       <c r="I35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K35" s="23"/>
+      <c r="K35" s="29"/>
       <c r="L35" s="9" t="s">
         <v>35</v>
       </c>
@@ -3716,7 +3970,7 @@
       <c r="R35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="T35" s="23"/>
+      <c r="T35" s="29"/>
       <c r="U35" s="9" t="s">
         <v>33</v>
       </c>
@@ -3740,7 +3994,7 @@
       </c>
     </row>
     <row r="36" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>29</v>
       </c>
       <c r="C36" s="6">
@@ -3764,7 +4018,7 @@
       <c r="I36" s="6">
         <v>24</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="29">
         <v>34</v>
       </c>
       <c r="L36" s="6">
@@ -3788,7 +4042,7 @@
       <c r="R36" s="6">
         <v>28</v>
       </c>
-      <c r="T36" s="23">
+      <c r="T36" s="29">
         <v>38</v>
       </c>
       <c r="U36" s="6">
@@ -3814,7 +4068,7 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B37" s="38"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="9" t="s">
         <v>36</v>
       </c>
@@ -3836,7 +4090,7 @@
       <c r="I37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="23"/>
+      <c r="K37" s="29"/>
       <c r="L37" s="15" t="s">
         <v>67</v>
       </c>
@@ -3858,7 +4112,7 @@
       <c r="R37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T37" s="23"/>
+      <c r="T37" s="29"/>
       <c r="U37" s="9" t="s">
         <v>42</v>
       </c>
@@ -3882,7 +4136,7 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>30</v>
       </c>
       <c r="C38" s="6">
@@ -3906,7 +4160,7 @@
       <c r="I38" s="6">
         <v>31</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="29">
         <v>35</v>
       </c>
       <c r="L38" s="6">
@@ -3918,11 +4172,11 @@
       <c r="N38" s="7">
         <v>31</v>
       </c>
-      <c r="O38" s="24"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="26"/>
-      <c r="T38" s="23">
+      <c r="O38" s="38"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="40"/>
+      <c r="T38" s="29">
         <v>39</v>
       </c>
       <c r="U38" s="6">
@@ -3940,11 +4194,11 @@
       <c r="Y38" s="7">
         <v>30</v>
       </c>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="26"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="40"/>
     </row>
     <row r="39" spans="2:27" ht="11.25" customHeight="1">
-      <c r="B39" s="38"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="18" t="s">
         <v>45</v>
       </c>
@@ -3966,7 +4220,7 @@
       <c r="I39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="23"/>
+      <c r="K39" s="29"/>
       <c r="L39" s="9" t="s">
         <v>12</v>
       </c>
@@ -3976,11 +4230,11 @@
       <c r="N39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="29"/>
-      <c r="T39" s="23"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
+      <c r="T39" s="29"/>
       <c r="U39" s="9" t="s">
         <v>10</v>
       </c>
@@ -3996,41 +4250,41 @@
       <c r="Y39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="29"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="43"/>
     </row>
     <row r="40" spans="2:27" ht="6.75" customHeight="1"/>
     <row r="41" spans="2:27" ht="12" customHeight="1">
-      <c r="B41" s="30">
+      <c r="B41" s="28">
         <v>44470</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="K41" s="30">
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="K41" s="28">
         <v>44501</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="T41" s="30">
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="T41" s="28">
         <v>44531</v>
       </c>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
     </row>
     <row r="42" spans="2:27" ht="12" customHeight="1">
       <c r="B42" s="2" t="s">
@@ -4107,21 +4361,21 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="12" customHeight="1">
-      <c r="B43" s="23">
+      <c r="B43" s="29">
         <v>39</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
       <c r="H43" s="13">
         <v>1</v>
       </c>
       <c r="I43" s="6">
         <v>2</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="29">
         <v>44</v>
       </c>
       <c r="L43" s="6">
@@ -4145,12 +4399,12 @@
       <c r="R43" s="6">
         <v>6</v>
       </c>
-      <c r="T43" s="23">
+      <c r="T43" s="29">
         <v>48</v>
       </c>
-      <c r="U43" s="24"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="26"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="40"/>
       <c r="X43" s="7">
         <v>1</v>
       </c>
@@ -4165,19 +4419,19 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="12" customHeight="1">
-      <c r="B44" s="23"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="17" t="s">
         <v>70</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="23"/>
+      <c r="K44" s="29"/>
       <c r="L44" s="9" t="s">
         <v>18</v>
       </c>
@@ -4199,10 +4453,10 @@
       <c r="R44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T44" s="23"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="43"/>
       <c r="X44" s="10" t="s">
         <v>19</v>
       </c>
@@ -4217,7 +4471,7 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="12" customHeight="1">
-      <c r="B45" s="23">
+      <c r="B45" s="29">
         <v>40</v>
       </c>
       <c r="C45" s="6">
@@ -4241,7 +4495,7 @@
       <c r="I45" s="6">
         <v>9</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="29">
         <v>45</v>
       </c>
       <c r="L45" s="6">
@@ -4265,7 +4519,7 @@
       <c r="R45" s="6">
         <v>13</v>
       </c>
-      <c r="T45" s="23">
+      <c r="T45" s="29">
         <v>49</v>
       </c>
       <c r="U45" s="6">
@@ -4291,7 +4545,7 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="12" customHeight="1">
-      <c r="B46" s="23"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="9" t="s">
         <v>19</v>
       </c>
@@ -4313,7 +4567,7 @@
       <c r="I46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="23"/>
+      <c r="K46" s="29"/>
       <c r="L46" s="9" t="s">
         <v>74</v>
       </c>
@@ -4335,7 +4589,7 @@
       <c r="R46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="T46" s="23"/>
+      <c r="T46" s="29"/>
       <c r="U46" s="9" t="s">
         <v>24</v>
       </c>
@@ -4359,7 +4613,7 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="12" customHeight="1">
-      <c r="B47" s="23">
+      <c r="B47" s="29">
         <v>41</v>
       </c>
       <c r="C47" s="6">
@@ -4383,7 +4637,7 @@
       <c r="I47" s="6">
         <v>16</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="29">
         <v>46</v>
       </c>
       <c r="L47" s="6">
@@ -4407,7 +4661,7 @@
       <c r="R47" s="6">
         <v>20</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T47" s="29">
         <v>50</v>
       </c>
       <c r="U47" s="6">
@@ -4433,7 +4687,7 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="12" customHeight="1">
-      <c r="B48" s="23"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="9" t="s">
         <v>32</v>
       </c>
@@ -4455,7 +4709,7 @@
       <c r="I48" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K48" s="23"/>
+      <c r="K48" s="29"/>
       <c r="L48" s="9" t="s">
         <v>39</v>
       </c>
@@ -4477,7 +4731,7 @@
       <c r="R48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="T48" s="23"/>
+      <c r="T48" s="29"/>
       <c r="U48" s="9" t="s">
         <v>36</v>
       </c>
@@ -4501,7 +4755,7 @@
       </c>
     </row>
     <row r="49" spans="2:27" ht="12" customHeight="1">
-      <c r="B49" s="23">
+      <c r="B49" s="29">
         <v>42</v>
       </c>
       <c r="C49" s="6">
@@ -4525,7 +4779,7 @@
       <c r="I49" s="6">
         <v>23</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="29">
         <v>47</v>
       </c>
       <c r="L49" s="6">
@@ -4549,7 +4803,7 @@
       <c r="R49" s="6">
         <v>27</v>
       </c>
-      <c r="T49" s="23">
+      <c r="T49" s="29">
         <v>51</v>
       </c>
       <c r="U49" s="6">
@@ -4575,7 +4829,7 @@
       </c>
     </row>
     <row r="50" spans="2:27" ht="12" customHeight="1">
-      <c r="B50" s="23"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="9" t="s">
         <v>41</v>
       </c>
@@ -4597,7 +4851,7 @@
       <c r="I50" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="23"/>
+      <c r="K50" s="29"/>
       <c r="L50" s="9" t="s">
         <v>47</v>
       </c>
@@ -4619,7 +4873,7 @@
       <c r="R50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T50" s="23"/>
+      <c r="T50" s="29"/>
       <c r="U50" s="9" t="s">
         <v>45</v>
       </c>
@@ -4643,7 +4897,7 @@
       </c>
     </row>
     <row r="51" spans="2:27" ht="12" customHeight="1">
-      <c r="B51" s="23">
+      <c r="B51" s="29">
         <v>43</v>
       </c>
       <c r="C51" s="6">
@@ -4667,7 +4921,7 @@
       <c r="I51" s="13">
         <v>30</v>
       </c>
-      <c r="K51" s="23">
+      <c r="K51" s="29">
         <v>48</v>
       </c>
       <c r="L51" s="6">
@@ -4679,11 +4933,11 @@
       <c r="N51" s="7">
         <v>30</v>
       </c>
-      <c r="O51" s="24"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="26"/>
-      <c r="T51" s="23">
+      <c r="O51" s="38"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="40"/>
+      <c r="T51" s="29">
         <v>52</v>
       </c>
       <c r="U51" s="6">
@@ -4704,10 +4958,10 @@
       <c r="Z51" s="7">
         <v>31</v>
       </c>
-      <c r="AA51" s="21"/>
+      <c r="AA51" s="50"/>
     </row>
     <row r="52" spans="2:27" ht="12" customHeight="1">
-      <c r="B52" s="23"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="9" t="s">
         <v>9</v>
       </c>
@@ -4729,7 +4983,7 @@
       <c r="I52" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="23"/>
+      <c r="K52" s="29"/>
       <c r="L52" s="9" t="s">
         <v>17</v>
       </c>
@@ -4739,11 +4993,11 @@
       <c r="N52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O52" s="27"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="29"/>
-      <c r="T52" s="23"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="43"/>
+      <c r="T52" s="29"/>
       <c r="U52" s="9" t="s">
         <v>13</v>
       </c>
@@ -4762,7 +5016,7 @@
       <c r="Z52" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AA52" s="22"/>
+      <c r="AA52" s="51"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4770,27 +5024,64 @@
     <protectedRange sqref="K2:R3 T2:AA3 T4:T13 K15:R16 T15:AA16 K17:K26 T17:T26 K28:R29 T28:AA29 K30:K39 T30:T39 K41:R42 T41:AA42 K43:K52 T43:T52 K4:K13" name="区域1_1_1"/>
   </protectedRanges>
   <mergeCells count="88">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M12:R13"/>
-    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="O51:R52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="Z38:AA39"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="T41:AA41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:G44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:W44"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="O38:R39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="Y25:AA26"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:W31"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:R26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="T21:T22"/>
     <mergeCell ref="Y12:AA13"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="K15:R15"/>
@@ -4800,67 +5091,6420 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="T17:T18"/>
     <mergeCell ref="U17:V18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="M12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5888DD-2A41-4D13-8AC3-FCA6B9FB6420}">
+  <dimension ref="B2:AA52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE21" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="0.375" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="5" width="3.875" customWidth="1"/>
+    <col min="6" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="0.75" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="5.375" customWidth="1"/>
+    <col min="13" max="13" width="5.125" customWidth="1"/>
+    <col min="14" max="14" width="4.375" customWidth="1"/>
+    <col min="15" max="15" width="5.5" customWidth="1"/>
+    <col min="16" max="18" width="4.375" customWidth="1"/>
+    <col min="19" max="19" width="0.875" customWidth="1"/>
+    <col min="20" max="20" width="3.5" customWidth="1"/>
+    <col min="21" max="21" width="5.375" customWidth="1"/>
+    <col min="22" max="22" width="4.5" customWidth="1"/>
+    <col min="23" max="23" width="5.25" customWidth="1"/>
+    <col min="24" max="24" width="5.125" customWidth="1"/>
+    <col min="25" max="25" width="4.375" customWidth="1"/>
+    <col min="26" max="26" width="5.375" customWidth="1"/>
+    <col min="27" max="27" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="5.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" ht="18.75">
+      <c r="B2" s="28">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="28">
+        <v>44593</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="28">
+        <v>44621</v>
+      </c>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+    </row>
+    <row r="3" spans="2:27" ht="14.25">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" ht="18">
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="29">
+        <v>5</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2</v>
+      </c>
+      <c r="P4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6">
+        <v>5</v>
+      </c>
+      <c r="T4" s="29">
+        <v>9</v>
+      </c>
+      <c r="U4" s="56"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="18">
+      <c r="B6" s="36">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="29">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6">
+        <v>6</v>
+      </c>
+      <c r="M6" s="7">
+        <v>7</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8</v>
+      </c>
+      <c r="O6" s="7">
+        <v>9</v>
+      </c>
+      <c r="P6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>11</v>
+      </c>
+      <c r="R6" s="6">
+        <v>12</v>
+      </c>
+      <c r="T6" s="29">
+        <v>10</v>
+      </c>
+      <c r="U6" s="6">
+        <v>6</v>
+      </c>
+      <c r="V6" s="7">
+        <v>7</v>
+      </c>
+      <c r="W6" s="7">
+        <v>8</v>
+      </c>
+      <c r="X6" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="37"/>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="18">
+      <c r="B8" s="36">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="29">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>14</v>
+      </c>
+      <c r="N8" s="13">
+        <v>15</v>
+      </c>
+      <c r="O8" s="7">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6">
+        <v>19</v>
+      </c>
+      <c r="T8" s="29">
+        <v>11</v>
+      </c>
+      <c r="U8" s="6">
+        <v>13</v>
+      </c>
+      <c r="V8" s="7">
+        <v>14</v>
+      </c>
+      <c r="W8" s="7">
+        <v>15</v>
+      </c>
+      <c r="X8" s="7">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="37"/>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="29"/>
+      <c r="U9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="18">
+      <c r="B10" s="36">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7">
+        <v>28</v>
+      </c>
+      <c r="I10" s="6">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="29">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>20</v>
+      </c>
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
+        <v>22</v>
+      </c>
+      <c r="O10" s="7">
+        <v>23</v>
+      </c>
+      <c r="P10" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>25</v>
+      </c>
+      <c r="R10" s="6">
+        <v>26</v>
+      </c>
+      <c r="T10" s="29">
+        <v>12</v>
+      </c>
+      <c r="U10" s="6">
+        <v>20</v>
+      </c>
+      <c r="V10" s="7">
+        <v>21</v>
+      </c>
+      <c r="W10" s="7">
+        <v>22</v>
+      </c>
+      <c r="X10" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="37"/>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="29"/>
+      <c r="U11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="18">
+      <c r="B12" s="36"/>
+      <c r="C12" s="6">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6">
+        <v>31</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="6">
+        <v>27</v>
+      </c>
+      <c r="M12" s="7">
+        <v>28</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="29">
+        <v>13</v>
+      </c>
+      <c r="U12" s="6">
+        <v>27</v>
+      </c>
+      <c r="V12" s="7">
+        <v>28</v>
+      </c>
+      <c r="W12" s="7">
+        <v>29</v>
+      </c>
+      <c r="X12" s="7">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
+    </row>
+    <row r="13" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="55"/>
+    </row>
+    <row r="15" spans="2:27" ht="18.75">
+      <c r="B15" s="28">
+        <v>44652</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="28">
+        <v>44682</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="28">
+        <v>44713</v>
+      </c>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+    </row>
+    <row r="16" spans="2:27" ht="14.25">
+      <c r="B16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="18">
+      <c r="B17" s="36"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="36">
+        <v>18</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4</v>
+      </c>
+      <c r="P17" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>6</v>
+      </c>
+      <c r="R17" s="6">
+        <v>7</v>
+      </c>
+      <c r="T17" s="29">
+        <v>22</v>
+      </c>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="17.25" customHeight="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="29"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="18">
+      <c r="B19" s="36">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7">
+        <v>7</v>
+      </c>
+      <c r="H19" s="7">
+        <v>8</v>
+      </c>
+      <c r="I19" s="6">
+        <v>9</v>
+      </c>
+      <c r="K19" s="29">
+        <v>19</v>
+      </c>
+      <c r="L19" s="6">
+        <v>8</v>
+      </c>
+      <c r="M19" s="7">
+        <v>9</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10</v>
+      </c>
+      <c r="O19" s="7">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>13</v>
+      </c>
+      <c r="R19" s="6">
+        <v>14</v>
+      </c>
+      <c r="T19" s="29">
+        <v>23</v>
+      </c>
+      <c r="U19" s="6">
+        <v>5</v>
+      </c>
+      <c r="V19" s="7">
+        <v>6</v>
+      </c>
+      <c r="W19" s="7">
+        <v>7</v>
+      </c>
+      <c r="X19" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>10</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="B20" s="37"/>
+      <c r="C20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="29"/>
+      <c r="U20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="18">
+      <c r="B21" s="36">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7">
+        <v>11</v>
+      </c>
+      <c r="E21" s="7">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7">
+        <v>13</v>
+      </c>
+      <c r="G21" s="7">
+        <v>14</v>
+      </c>
+      <c r="H21" s="7">
+        <v>15</v>
+      </c>
+      <c r="I21" s="6">
+        <v>16</v>
+      </c>
+      <c r="K21" s="29">
+        <v>20</v>
+      </c>
+      <c r="L21" s="6">
+        <v>15</v>
+      </c>
+      <c r="M21" s="7">
+        <v>16</v>
+      </c>
+      <c r="N21" s="7">
+        <v>17</v>
+      </c>
+      <c r="O21" s="7">
+        <v>18</v>
+      </c>
+      <c r="P21" s="7">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>20</v>
+      </c>
+      <c r="R21" s="6">
+        <v>21</v>
+      </c>
+      <c r="T21" s="36">
+        <v>24</v>
+      </c>
+      <c r="U21" s="6">
+        <v>12</v>
+      </c>
+      <c r="V21" s="7">
+        <v>13</v>
+      </c>
+      <c r="W21" s="7">
+        <v>14</v>
+      </c>
+      <c r="X21" s="7">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>17</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="B22" s="37"/>
+      <c r="C22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="T22" s="37"/>
+      <c r="U22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="18">
+      <c r="B23" s="36">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7">
+        <v>19</v>
+      </c>
+      <c r="F23" s="7">
+        <v>20</v>
+      </c>
+      <c r="G23" s="7">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <v>22</v>
+      </c>
+      <c r="I23" s="6">
+        <v>23</v>
+      </c>
+      <c r="K23" s="29">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6">
+        <v>22</v>
+      </c>
+      <c r="M23" s="7">
+        <v>23</v>
+      </c>
+      <c r="N23" s="7">
+        <v>24</v>
+      </c>
+      <c r="O23" s="7">
+        <v>25</v>
+      </c>
+      <c r="P23" s="7">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>27</v>
+      </c>
+      <c r="R23" s="6">
+        <v>28</v>
+      </c>
+      <c r="T23" s="36">
+        <v>25</v>
+      </c>
+      <c r="U23" s="6">
+        <v>19</v>
+      </c>
+      <c r="V23" s="7">
+        <v>20</v>
+      </c>
+      <c r="W23" s="7">
+        <v>21</v>
+      </c>
+      <c r="X23" s="7">
+        <v>22</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>23</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>24</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="B24" s="37"/>
+      <c r="C24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="37"/>
+      <c r="U24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="18">
+      <c r="B25" s="36">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>26</v>
+      </c>
+      <c r="F25" s="7">
+        <v>27</v>
+      </c>
+      <c r="G25" s="7">
+        <v>28</v>
+      </c>
+      <c r="H25" s="7">
+        <v>29</v>
+      </c>
+      <c r="I25" s="6">
+        <v>30</v>
+      </c>
+      <c r="K25" s="29">
+        <v>22</v>
+      </c>
+      <c r="L25" s="6">
+        <v>29</v>
+      </c>
+      <c r="M25" s="7">
+        <v>30</v>
+      </c>
+      <c r="N25" s="7">
+        <v>31</v>
+      </c>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="29">
+        <v>26</v>
+      </c>
+      <c r="U25" s="6">
+        <v>26</v>
+      </c>
+      <c r="V25" s="7">
+        <v>27</v>
+      </c>
+      <c r="W25" s="7">
+        <v>28</v>
+      </c>
+      <c r="X25" s="7">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="40"/>
+    </row>
+    <row r="26" spans="2:27" ht="17.25" customHeight="1">
+      <c r="B26" s="37"/>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="43"/>
+    </row>
+    <row r="28" spans="2:27" ht="18.75">
+      <c r="B28" s="28">
+        <v>44743</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="28">
+        <v>44774</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="T28" s="28">
+        <v>44805</v>
+      </c>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+    </row>
+    <row r="29" spans="2:27" ht="14.25">
+      <c r="B29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="18">
+      <c r="B30" s="36">
+        <v>26</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2</v>
+      </c>
+      <c r="K30" s="29">
+        <v>31</v>
+      </c>
+      <c r="L30" s="6">
+        <v>31</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2</v>
+      </c>
+      <c r="O30" s="7">
+        <v>3</v>
+      </c>
+      <c r="P30" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>5</v>
+      </c>
+      <c r="R30" s="7">
+        <v>6</v>
+      </c>
+      <c r="T30" s="29">
+        <v>35</v>
+      </c>
+      <c r="U30" s="44"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="17.25" customHeight="1">
+      <c r="B31" s="37"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="29"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="18">
+      <c r="B32" s="36">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5</v>
+      </c>
+      <c r="F32" s="7">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7">
+        <v>7</v>
+      </c>
+      <c r="H32" s="7">
+        <v>8</v>
+      </c>
+      <c r="I32" s="6">
+        <v>9</v>
+      </c>
+      <c r="K32" s="29">
+        <v>32</v>
+      </c>
+      <c r="L32" s="6">
+        <v>7</v>
+      </c>
+      <c r="M32" s="7">
+        <v>8</v>
+      </c>
+      <c r="N32" s="7">
+        <v>9</v>
+      </c>
+      <c r="O32" s="7">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>12</v>
+      </c>
+      <c r="R32" s="7">
+        <v>13</v>
+      </c>
+      <c r="T32" s="29">
+        <v>36</v>
+      </c>
+      <c r="U32" s="6">
+        <v>4</v>
+      </c>
+      <c r="V32" s="7">
+        <v>5</v>
+      </c>
+      <c r="W32" s="7">
+        <v>6</v>
+      </c>
+      <c r="X32" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B33" s="37"/>
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" s="29"/>
+      <c r="U33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="18">
+      <c r="B34" s="36">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7">
+        <v>13</v>
+      </c>
+      <c r="G34" s="7">
+        <v>14</v>
+      </c>
+      <c r="H34" s="7">
+        <v>15</v>
+      </c>
+      <c r="I34" s="6">
+        <v>16</v>
+      </c>
+      <c r="K34" s="29">
+        <v>33</v>
+      </c>
+      <c r="L34" s="6">
+        <v>14</v>
+      </c>
+      <c r="M34" s="7">
+        <v>15</v>
+      </c>
+      <c r="N34" s="7">
+        <v>16</v>
+      </c>
+      <c r="O34" s="7">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>19</v>
+      </c>
+      <c r="R34" s="7">
+        <v>20</v>
+      </c>
+      <c r="T34" s="29">
+        <v>37</v>
+      </c>
+      <c r="U34" s="6">
+        <v>11</v>
+      </c>
+      <c r="V34" s="7">
+        <v>12</v>
+      </c>
+      <c r="W34" s="7">
+        <v>13</v>
+      </c>
+      <c r="X34" s="7">
+        <v>14</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B35" s="37"/>
+      <c r="C35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="29"/>
+      <c r="L35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="29"/>
+      <c r="U35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="18">
+      <c r="B36" s="36">
+        <v>29</v>
+      </c>
+      <c r="C36" s="6">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7">
+        <v>19</v>
+      </c>
+      <c r="F36" s="7">
+        <v>20</v>
+      </c>
+      <c r="G36" s="7">
+        <v>21</v>
+      </c>
+      <c r="H36" s="7">
+        <v>22</v>
+      </c>
+      <c r="I36" s="6">
+        <v>23</v>
+      </c>
+      <c r="K36" s="29">
+        <v>34</v>
+      </c>
+      <c r="L36" s="6">
+        <v>21</v>
+      </c>
+      <c r="M36" s="7">
+        <v>22</v>
+      </c>
+      <c r="N36" s="7">
+        <v>23</v>
+      </c>
+      <c r="O36" s="7">
+        <v>24</v>
+      </c>
+      <c r="P36" s="7">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>26</v>
+      </c>
+      <c r="R36" s="7">
+        <v>27</v>
+      </c>
+      <c r="T36" s="29">
+        <v>38</v>
+      </c>
+      <c r="U36" s="6">
+        <v>18</v>
+      </c>
+      <c r="V36" s="7">
+        <v>19</v>
+      </c>
+      <c r="W36" s="7">
+        <v>20</v>
+      </c>
+      <c r="X36" s="7">
+        <v>21</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>22</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>23</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B37" s="37"/>
+      <c r="C37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T37" s="29"/>
+      <c r="U37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="18">
+      <c r="B38" s="36">
+        <v>30</v>
+      </c>
+      <c r="C38" s="6">
+        <v>24</v>
+      </c>
+      <c r="D38" s="7">
+        <v>25</v>
+      </c>
+      <c r="E38" s="7">
+        <v>26</v>
+      </c>
+      <c r="F38" s="7">
+        <v>27</v>
+      </c>
+      <c r="G38" s="7">
+        <v>28</v>
+      </c>
+      <c r="H38" s="7">
+        <v>29</v>
+      </c>
+      <c r="I38" s="6">
+        <v>30</v>
+      </c>
+      <c r="K38" s="29">
+        <v>35</v>
+      </c>
+      <c r="L38" s="6">
+        <v>28</v>
+      </c>
+      <c r="M38" s="7">
+        <v>29</v>
+      </c>
+      <c r="N38" s="7">
+        <v>30</v>
+      </c>
+      <c r="O38" s="7">
+        <v>31</v>
+      </c>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="40"/>
+      <c r="T38" s="29">
+        <v>39</v>
+      </c>
+      <c r="U38" s="6">
+        <v>25</v>
+      </c>
+      <c r="V38" s="7">
+        <v>26</v>
+      </c>
+      <c r="W38" s="7">
+        <v>27</v>
+      </c>
+      <c r="X38" s="7">
+        <v>28</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>29</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>30</v>
+      </c>
+      <c r="AA38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B39" s="37"/>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="29"/>
+      <c r="L39" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA39" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:27" ht="18.75">
+      <c r="B41" s="28">
+        <v>44835</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="K41" s="28">
+        <v>44866</v>
+      </c>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="28">
+        <v>44896</v>
+      </c>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+    </row>
+    <row r="42" spans="2:27" ht="14.25">
+      <c r="B42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B43" s="36">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>6</v>
+      </c>
+      <c r="H43" s="7">
+        <v>7</v>
+      </c>
+      <c r="I43" s="6">
+        <v>8</v>
+      </c>
+      <c r="K43" s="29">
+        <v>44</v>
+      </c>
+      <c r="L43" s="56"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="7">
+        <v>1</v>
+      </c>
+      <c r="O43" s="7">
+        <v>2</v>
+      </c>
+      <c r="P43" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>4</v>
+      </c>
+      <c r="R43" s="6">
+        <v>5</v>
+      </c>
+      <c r="T43" s="29">
+        <v>48</v>
+      </c>
+      <c r="U43" s="38"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" ht="17.25" customHeight="1">
+      <c r="B44" s="37"/>
+      <c r="C44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" s="29"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B45" s="36">
+        <v>41</v>
+      </c>
+      <c r="C45" s="6">
+        <v>9</v>
+      </c>
+      <c r="D45" s="7">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7">
+        <v>11</v>
+      </c>
+      <c r="F45" s="7">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7">
+        <v>13</v>
+      </c>
+      <c r="H45" s="7">
+        <v>14</v>
+      </c>
+      <c r="I45" s="6">
+        <v>15</v>
+      </c>
+      <c r="K45" s="29">
+        <v>45</v>
+      </c>
+      <c r="L45" s="6">
+        <v>6</v>
+      </c>
+      <c r="M45" s="7">
+        <v>7</v>
+      </c>
+      <c r="N45" s="7">
+        <v>8</v>
+      </c>
+      <c r="O45" s="7">
+        <v>9</v>
+      </c>
+      <c r="P45" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>11</v>
+      </c>
+      <c r="R45" s="6">
+        <v>12</v>
+      </c>
+      <c r="T45" s="29">
+        <v>49</v>
+      </c>
+      <c r="U45" s="6">
+        <v>4</v>
+      </c>
+      <c r="V45" s="7">
+        <v>5</v>
+      </c>
+      <c r="W45" s="7">
+        <v>6</v>
+      </c>
+      <c r="X45" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B46" s="37"/>
+      <c r="C46" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" s="29"/>
+      <c r="U46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA46" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B47" s="36">
+        <v>42</v>
+      </c>
+      <c r="C47" s="6">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7">
+        <v>17</v>
+      </c>
+      <c r="E47" s="7">
+        <v>18</v>
+      </c>
+      <c r="F47" s="7">
+        <v>19</v>
+      </c>
+      <c r="G47" s="7">
+        <v>20</v>
+      </c>
+      <c r="H47" s="7">
+        <v>21</v>
+      </c>
+      <c r="I47" s="6">
+        <v>22</v>
+      </c>
+      <c r="K47" s="29">
+        <v>46</v>
+      </c>
+      <c r="L47" s="6">
+        <v>13</v>
+      </c>
+      <c r="M47" s="7">
+        <v>14</v>
+      </c>
+      <c r="N47" s="7">
+        <v>15</v>
+      </c>
+      <c r="O47" s="7">
+        <v>16</v>
+      </c>
+      <c r="P47" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>18</v>
+      </c>
+      <c r="R47" s="6">
+        <v>19</v>
+      </c>
+      <c r="T47" s="29">
+        <v>50</v>
+      </c>
+      <c r="U47" s="6">
+        <v>11</v>
+      </c>
+      <c r="V47" s="7">
+        <v>12</v>
+      </c>
+      <c r="W47" s="7">
+        <v>13</v>
+      </c>
+      <c r="X47" s="7">
+        <v>14</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>15</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B48" s="37"/>
+      <c r="C48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="29"/>
+      <c r="L48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T48" s="29"/>
+      <c r="U48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA48" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B49" s="36">
+        <v>43</v>
+      </c>
+      <c r="C49" s="6">
+        <v>23</v>
+      </c>
+      <c r="D49" s="7">
+        <v>24</v>
+      </c>
+      <c r="E49" s="7">
+        <v>25</v>
+      </c>
+      <c r="F49" s="7">
+        <v>26</v>
+      </c>
+      <c r="G49" s="7">
+        <v>27</v>
+      </c>
+      <c r="H49" s="7">
+        <v>28</v>
+      </c>
+      <c r="I49" s="6">
+        <v>29</v>
+      </c>
+      <c r="K49" s="29">
+        <v>47</v>
+      </c>
+      <c r="L49" s="6">
+        <v>20</v>
+      </c>
+      <c r="M49" s="7">
+        <v>21</v>
+      </c>
+      <c r="N49" s="7">
+        <v>22</v>
+      </c>
+      <c r="O49" s="7">
+        <v>23</v>
+      </c>
+      <c r="P49" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>25</v>
+      </c>
+      <c r="R49" s="6">
+        <v>26</v>
+      </c>
+      <c r="T49" s="29">
+        <v>51</v>
+      </c>
+      <c r="U49" s="6">
+        <v>18</v>
+      </c>
+      <c r="V49" s="7">
+        <v>19</v>
+      </c>
+      <c r="W49" s="7">
+        <v>20</v>
+      </c>
+      <c r="X49" s="7">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>22</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>23</v>
+      </c>
+      <c r="AA49" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B50" s="37"/>
+      <c r="C50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="29"/>
+      <c r="L50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T50" s="29"/>
+      <c r="U50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" ht="13.5" customHeight="1">
+      <c r="B51" s="36">
+        <v>44</v>
+      </c>
+      <c r="C51" s="6">
+        <v>30</v>
+      </c>
+      <c r="D51" s="7">
+        <v>31</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40"/>
+      <c r="K51" s="29">
+        <v>48</v>
+      </c>
+      <c r="L51" s="6">
+        <v>27</v>
+      </c>
+      <c r="M51" s="7">
+        <v>28</v>
+      </c>
+      <c r="N51" s="7">
+        <v>29</v>
+      </c>
+      <c r="O51" s="7">
+        <v>30</v>
+      </c>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="29">
+        <v>52</v>
+      </c>
+      <c r="U51" s="6">
+        <v>25</v>
+      </c>
+      <c r="V51" s="7">
+        <v>26</v>
+      </c>
+      <c r="W51" s="7">
+        <v>27</v>
+      </c>
+      <c r="X51" s="7">
+        <v>28</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>29</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>30</v>
+      </c>
+      <c r="AA51" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" ht="17.25" customHeight="1">
+      <c r="B52" s="37"/>
+      <c r="C52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X52" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B15:I16 B17:B26 K17:K18" name="区域1_1_2"/>
+    <protectedRange sqref="K15:R16 T15:AA16 K19:K26 T17:T26" name="区域1_1_1_1"/>
+    <protectedRange sqref="B28:I29 B30:B39 K28:R29 T28:AA29 K30:K39 T30:T39" name="区域1_1_3"/>
+    <protectedRange sqref="B41:I42 B43:B52" name="区域1_1_6"/>
+    <protectedRange sqref="K41:R42 T41:AA42 K43:K52 T43:T52" name="区域1_1_1_3"/>
+  </protectedRanges>
+  <mergeCells count="87">
+    <mergeCell ref="P51:R52"/>
+    <mergeCell ref="E51:I52"/>
+    <mergeCell ref="P38:R39"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="T41:AA41"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U43:X44"/>
+    <mergeCell ref="L43:M44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="C30:G31"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:X31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="E12:I13"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="O25:R26"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="T19:T20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="T4:T5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A82C44-CBC4-49CB-A80E-F3F33965BA9E}">
+  <dimension ref="B1:AJ40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP22" sqref="AP22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.25" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="5" width="3.875" customWidth="1"/>
+    <col min="6" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="0.75" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="4.125" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="14" max="14" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="18" width="4.375" customWidth="1"/>
+    <col min="19" max="19" width="0.875" customWidth="1"/>
+    <col min="20" max="20" width="3.5" customWidth="1"/>
+    <col min="21" max="23" width="4.375" customWidth="1"/>
+    <col min="24" max="24" width="5.125" customWidth="1"/>
+    <col min="25" max="25" width="4.375" customWidth="1"/>
+    <col min="26" max="26" width="4.5" customWidth="1"/>
+    <col min="27" max="27" width="5.125" customWidth="1"/>
+    <col min="28" max="28" width="1.5" customWidth="1"/>
+    <col min="29" max="29" width="3.125" customWidth="1"/>
+    <col min="30" max="30" width="4" customWidth="1"/>
+    <col min="31" max="31" width="4.25" customWidth="1"/>
+    <col min="32" max="34" width="4.125" customWidth="1"/>
+    <col min="35" max="35" width="4.625" customWidth="1"/>
+    <col min="36" max="36" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:36" ht="5.25" customHeight="1"/>
+    <row r="2" spans="2:36" ht="15.75" customHeight="1">
+      <c r="B2" s="28">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="28">
+        <v>44593</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="28">
+        <v>44621</v>
+      </c>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AC2" s="28">
+        <v>44652</v>
+      </c>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+    </row>
+    <row r="3" spans="2:36" ht="14.25">
+      <c r="B3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" ht="12" customHeight="1">
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="29">
+        <v>5</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2</v>
+      </c>
+      <c r="P4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6">
+        <v>5</v>
+      </c>
+      <c r="T4" s="29">
+        <v>9</v>
+      </c>
+      <c r="U4" s="56"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" ht="12.75" customHeight="1">
+      <c r="B6" s="36">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="29">
+        <v>6</v>
+      </c>
+      <c r="L6" s="6">
+        <v>6</v>
+      </c>
+      <c r="M6" s="7">
+        <v>7</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8</v>
+      </c>
+      <c r="O6" s="7">
+        <v>9</v>
+      </c>
+      <c r="P6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>11</v>
+      </c>
+      <c r="R6" s="6">
+        <v>12</v>
+      </c>
+      <c r="T6" s="29">
+        <v>10</v>
+      </c>
+      <c r="U6" s="6">
+        <v>6</v>
+      </c>
+      <c r="V6" s="7">
+        <v>7</v>
+      </c>
+      <c r="W6" s="7">
+        <v>8</v>
+      </c>
+      <c r="X6" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="36">
+        <v>14</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36">
+      <c r="B7" s="37"/>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" ht="16.5" customHeight="1">
+      <c r="B8" s="36">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="29">
+        <v>7</v>
+      </c>
+      <c r="L8" s="6">
+        <v>13</v>
+      </c>
+      <c r="M8" s="7">
+        <v>14</v>
+      </c>
+      <c r="N8" s="13">
+        <v>15</v>
+      </c>
+      <c r="O8" s="7">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6">
+        <v>19</v>
+      </c>
+      <c r="T8" s="29">
+        <v>11</v>
+      </c>
+      <c r="U8" s="6">
+        <v>13</v>
+      </c>
+      <c r="V8" s="7">
+        <v>14</v>
+      </c>
+      <c r="W8" s="7">
+        <v>15</v>
+      </c>
+      <c r="X8" s="7">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC8" s="36">
+        <v>15</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>14</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>15</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36">
+      <c r="B9" s="37"/>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="29"/>
+      <c r="U9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" ht="15" customHeight="1">
+      <c r="B10" s="36">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7">
+        <v>28</v>
+      </c>
+      <c r="I10" s="6">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="29">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>20</v>
+      </c>
+      <c r="M10" s="7">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7">
+        <v>22</v>
+      </c>
+      <c r="O10" s="7">
+        <v>23</v>
+      </c>
+      <c r="P10" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>25</v>
+      </c>
+      <c r="R10" s="6">
+        <v>26</v>
+      </c>
+      <c r="T10" s="29">
+        <v>12</v>
+      </c>
+      <c r="U10" s="6">
+        <v>20</v>
+      </c>
+      <c r="V10" s="7">
+        <v>21</v>
+      </c>
+      <c r="W10" s="7">
+        <v>22</v>
+      </c>
+      <c r="X10" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>26</v>
+      </c>
+      <c r="AC10" s="36">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>17</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>18</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>19</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>21</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>22</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36">
+      <c r="B11" s="37"/>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="29"/>
+      <c r="U11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" ht="14.25" customHeight="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="6">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6">
+        <v>31</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="6">
+        <v>27</v>
+      </c>
+      <c r="M12" s="7">
+        <v>28</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="29">
+        <v>13</v>
+      </c>
+      <c r="U12" s="6">
+        <v>27</v>
+      </c>
+      <c r="V12" s="7">
+        <v>28</v>
+      </c>
+      <c r="W12" s="7">
+        <v>29</v>
+      </c>
+      <c r="X12" s="7">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
+      <c r="AC12" s="36">
+        <v>17</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>24</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>25</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>26</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>27</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>28</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>29</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="55"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" ht="6" customHeight="1"/>
+    <row r="15" spans="2:36" ht="17.25" customHeight="1">
+      <c r="B15" s="28">
+        <v>44682</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="28">
+        <v>44713</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="T15" s="28">
+        <v>44743</v>
+      </c>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AC15" s="28">
+        <v>44774</v>
+      </c>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+    </row>
+    <row r="16" spans="2:36" ht="14.25">
+      <c r="B16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B17" s="36">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6">
+        <v>7</v>
+      </c>
+      <c r="K17" s="29">
+        <v>22</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>3</v>
+      </c>
+      <c r="R17" s="6">
+        <v>4</v>
+      </c>
+      <c r="T17" s="36">
+        <v>26</v>
+      </c>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="29">
+        <v>31</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>31</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:36" ht="17.25" customHeight="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="37"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" ht="15.75" customHeight="1">
+      <c r="B19" s="36">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="6">
+        <v>14</v>
+      </c>
+      <c r="K19" s="29">
+        <v>23</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7</v>
+      </c>
+      <c r="O19" s="7">
+        <v>8</v>
+      </c>
+      <c r="P19" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>10</v>
+      </c>
+      <c r="R19" s="6">
+        <v>11</v>
+      </c>
+      <c r="T19" s="36">
+        <v>27</v>
+      </c>
+      <c r="U19" s="6">
+        <v>3</v>
+      </c>
+      <c r="V19" s="7">
+        <v>4</v>
+      </c>
+      <c r="W19" s="7">
+        <v>5</v>
+      </c>
+      <c r="X19" s="7">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="29">
+        <v>32</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>8</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>9</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>11</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B20" s="37"/>
+      <c r="C20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T20" s="37"/>
+      <c r="U20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:36" ht="16.5" customHeight="1">
+      <c r="B21" s="36">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7">
+        <v>18</v>
+      </c>
+      <c r="G21" s="7">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <v>20</v>
+      </c>
+      <c r="I21" s="6">
+        <v>21</v>
+      </c>
+      <c r="K21" s="36">
+        <v>24</v>
+      </c>
+      <c r="L21" s="6">
+        <v>12</v>
+      </c>
+      <c r="M21" s="7">
+        <v>13</v>
+      </c>
+      <c r="N21" s="7">
+        <v>14</v>
+      </c>
+      <c r="O21" s="7">
+        <v>15</v>
+      </c>
+      <c r="P21" s="7">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>17</v>
+      </c>
+      <c r="R21" s="6">
+        <v>18</v>
+      </c>
+      <c r="T21" s="36">
+        <v>28</v>
+      </c>
+      <c r="U21" s="6">
+        <v>10</v>
+      </c>
+      <c r="V21" s="7">
+        <v>11</v>
+      </c>
+      <c r="W21" s="7">
+        <v>12</v>
+      </c>
+      <c r="X21" s="7">
+        <v>13</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>15</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="29">
+        <v>33</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>15</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>16</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>17</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>18</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>19</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B22" s="37"/>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="37"/>
+      <c r="U22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36" ht="16.5" customHeight="1">
+      <c r="B23" s="36">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>23</v>
+      </c>
+      <c r="E23" s="7">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7">
+        <v>25</v>
+      </c>
+      <c r="G23" s="7">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7">
+        <v>27</v>
+      </c>
+      <c r="I23" s="6">
+        <v>28</v>
+      </c>
+      <c r="K23" s="36">
+        <v>25</v>
+      </c>
+      <c r="L23" s="6">
+        <v>19</v>
+      </c>
+      <c r="M23" s="7">
+        <v>20</v>
+      </c>
+      <c r="N23" s="7">
+        <v>21</v>
+      </c>
+      <c r="O23" s="7">
+        <v>22</v>
+      </c>
+      <c r="P23" s="7">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>24</v>
+      </c>
+      <c r="R23" s="6">
+        <v>25</v>
+      </c>
+      <c r="T23" s="36">
+        <v>29</v>
+      </c>
+      <c r="U23" s="6">
+        <v>17</v>
+      </c>
+      <c r="V23" s="7">
+        <v>18</v>
+      </c>
+      <c r="W23" s="7">
+        <v>19</v>
+      </c>
+      <c r="X23" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>21</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>23</v>
+      </c>
+      <c r="AC23" s="29">
+        <v>34</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>21</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>22</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>23</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>24</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>25</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>26</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B24" s="37"/>
+      <c r="C24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T24" s="37"/>
+      <c r="U24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ24" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" ht="18">
+      <c r="B25" s="36">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7">
+        <v>30</v>
+      </c>
+      <c r="E25" s="7">
+        <v>31</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="29">
+        <v>26</v>
+      </c>
+      <c r="L25" s="6">
+        <v>26</v>
+      </c>
+      <c r="M25" s="7">
+        <v>27</v>
+      </c>
+      <c r="N25" s="7">
+        <v>28</v>
+      </c>
+      <c r="O25" s="7">
+        <v>29</v>
+      </c>
+      <c r="P25" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="40"/>
+      <c r="T25" s="36">
+        <v>30</v>
+      </c>
+      <c r="U25" s="6">
+        <v>24</v>
+      </c>
+      <c r="V25" s="7">
+        <v>25</v>
+      </c>
+      <c r="W25" s="7">
+        <v>26</v>
+      </c>
+      <c r="X25" s="7">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>28</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>29</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>30</v>
+      </c>
+      <c r="AC25" s="29">
+        <v>35</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>29</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>31</v>
+      </c>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="40"/>
+    </row>
+    <row r="26" spans="2:36" ht="17.25" customHeight="1">
+      <c r="B26" s="37"/>
+      <c r="C26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="43"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="43"/>
+    </row>
+    <row r="27" spans="2:36" ht="9" customHeight="1"/>
+    <row r="28" spans="2:36" ht="18.75">
+      <c r="B28" s="28">
+        <v>44805</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="28">
+        <v>44835</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="T28" s="28">
+        <v>44866</v>
+      </c>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AC28" s="28">
+        <v>44896</v>
+      </c>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+    </row>
+    <row r="29" spans="2:36" ht="14.25">
+      <c r="B29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:36" ht="15" customHeight="1">
+      <c r="B30" s="29">
+        <v>35</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3</v>
+      </c>
+      <c r="K30" s="36">
+        <v>40</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4</v>
+      </c>
+      <c r="O30" s="7">
+        <v>5</v>
+      </c>
+      <c r="P30" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>7</v>
+      </c>
+      <c r="R30" s="6">
+        <v>8</v>
+      </c>
+      <c r="T30" s="29">
+        <v>44</v>
+      </c>
+      <c r="U30" s="56"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="7">
+        <v>1</v>
+      </c>
+      <c r="X30" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="6">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="29">
+        <v>48</v>
+      </c>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="39"/>
+      <c r="AF30" s="39"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" ht="12" customHeight="1">
+      <c r="B31" s="29"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="37"/>
+      <c r="L31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="T31" s="29"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ31" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" ht="14.25" customHeight="1">
+      <c r="B32" s="29">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7">
+        <v>6</v>
+      </c>
+      <c r="F32" s="7">
+        <v>7</v>
+      </c>
+      <c r="G32" s="7">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7">
+        <v>9</v>
+      </c>
+      <c r="I32" s="6">
+        <v>10</v>
+      </c>
+      <c r="K32" s="36">
+        <v>41</v>
+      </c>
+      <c r="L32" s="6">
+        <v>9</v>
+      </c>
+      <c r="M32" s="7">
+        <v>10</v>
+      </c>
+      <c r="N32" s="7">
+        <v>11</v>
+      </c>
+      <c r="O32" s="7">
+        <v>12</v>
+      </c>
+      <c r="P32" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>14</v>
+      </c>
+      <c r="R32" s="6">
+        <v>15</v>
+      </c>
+      <c r="T32" s="29">
+        <v>45</v>
+      </c>
+      <c r="U32" s="6">
+        <v>6</v>
+      </c>
+      <c r="V32" s="7">
+        <v>7</v>
+      </c>
+      <c r="W32" s="7">
+        <v>8</v>
+      </c>
+      <c r="X32" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="6">
+        <v>12</v>
+      </c>
+      <c r="AC32" s="29">
+        <v>49</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>5</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>6</v>
+      </c>
+      <c r="AG32" s="7">
+        <v>7</v>
+      </c>
+      <c r="AH32" s="7">
+        <v>8</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>9</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B33" s="29"/>
+      <c r="C33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="37"/>
+      <c r="L33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="29"/>
+      <c r="U33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="W33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG33" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI33" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ33" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" ht="14.25" customHeight="1">
+      <c r="B34" s="29">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7">
+        <v>14</v>
+      </c>
+      <c r="G34" s="7">
+        <v>15</v>
+      </c>
+      <c r="H34" s="7">
+        <v>16</v>
+      </c>
+      <c r="I34" s="6">
+        <v>17</v>
+      </c>
+      <c r="K34" s="36">
+        <v>42</v>
+      </c>
+      <c r="L34" s="6">
+        <v>16</v>
+      </c>
+      <c r="M34" s="7">
+        <v>17</v>
+      </c>
+      <c r="N34" s="7">
+        <v>18</v>
+      </c>
+      <c r="O34" s="7">
+        <v>19</v>
+      </c>
+      <c r="P34" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>21</v>
+      </c>
+      <c r="R34" s="6">
+        <v>22</v>
+      </c>
+      <c r="T34" s="29">
+        <v>46</v>
+      </c>
+      <c r="U34" s="6">
+        <v>13</v>
+      </c>
+      <c r="V34" s="7">
+        <v>14</v>
+      </c>
+      <c r="W34" s="7">
+        <v>15</v>
+      </c>
+      <c r="X34" s="7">
+        <v>16</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>17</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC34" s="29">
+        <v>50</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>12</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>13</v>
+      </c>
+      <c r="AG34" s="7">
+        <v>14</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>15</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>16</v>
+      </c>
+      <c r="AJ34" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B35" s="29"/>
+      <c r="C35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="37"/>
+      <c r="L35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T35" s="29"/>
+      <c r="U35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ35" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" ht="16.5" customHeight="1">
+      <c r="B36" s="29">
+        <v>38</v>
+      </c>
+      <c r="C36" s="6">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7">
+        <v>19</v>
+      </c>
+      <c r="E36" s="7">
+        <v>20</v>
+      </c>
+      <c r="F36" s="7">
+        <v>21</v>
+      </c>
+      <c r="G36" s="7">
+        <v>22</v>
+      </c>
+      <c r="H36" s="7">
+        <v>23</v>
+      </c>
+      <c r="I36" s="6">
+        <v>24</v>
+      </c>
+      <c r="K36" s="36">
+        <v>43</v>
+      </c>
+      <c r="L36" s="6">
+        <v>23</v>
+      </c>
+      <c r="M36" s="7">
+        <v>24</v>
+      </c>
+      <c r="N36" s="7">
+        <v>25</v>
+      </c>
+      <c r="O36" s="7">
+        <v>26</v>
+      </c>
+      <c r="P36" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>28</v>
+      </c>
+      <c r="R36" s="6">
+        <v>29</v>
+      </c>
+      <c r="T36" s="29">
+        <v>47</v>
+      </c>
+      <c r="U36" s="6">
+        <v>20</v>
+      </c>
+      <c r="V36" s="7">
+        <v>21</v>
+      </c>
+      <c r="W36" s="7">
+        <v>22</v>
+      </c>
+      <c r="X36" s="7">
+        <v>23</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>24</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>25</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>26</v>
+      </c>
+      <c r="AC36" s="29">
+        <v>51</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>18</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>19</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>20</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>21</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>22</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>23</v>
+      </c>
+      <c r="AJ36" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B37" s="29"/>
+      <c r="C37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="29"/>
+      <c r="U37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ37" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" ht="17.25" customHeight="1">
+      <c r="B38" s="29">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6">
+        <v>25</v>
+      </c>
+      <c r="D38" s="7">
+        <v>26</v>
+      </c>
+      <c r="E38" s="7">
+        <v>27</v>
+      </c>
+      <c r="F38" s="7">
+        <v>28</v>
+      </c>
+      <c r="G38" s="7">
+        <v>29</v>
+      </c>
+      <c r="H38" s="7">
+        <v>30</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="36">
+        <v>44</v>
+      </c>
+      <c r="L38" s="6">
+        <v>30</v>
+      </c>
+      <c r="M38" s="7">
+        <v>31</v>
+      </c>
+      <c r="N38" s="38"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="40"/>
+      <c r="T38" s="29">
+        <v>48</v>
+      </c>
+      <c r="U38" s="6">
+        <v>27</v>
+      </c>
+      <c r="V38" s="7">
+        <v>28</v>
+      </c>
+      <c r="W38" s="7">
+        <v>29</v>
+      </c>
+      <c r="X38" s="7">
+        <v>30</v>
+      </c>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="40"/>
+      <c r="AC38" s="29">
+        <v>52</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>25</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>26</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>27</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>28</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>29</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>30</v>
+      </c>
+      <c r="AJ38" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" ht="13.5" customHeight="1">
+      <c r="B39" s="29"/>
+      <c r="C39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="37"/>
+      <c r="L39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="41"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="43"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI39" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ39" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="AC2:AJ3 AC4:AC13 B17:B18" name="区域1_1_2"/>
+    <protectedRange sqref="K15:R16 B19:B26 K17:K26 B15:I16" name="区域1_1_1_1"/>
+    <protectedRange sqref="T15:AA16 T17:T26 AC15:AJ16 AC17:AC26 B28:I29 B30:B39" name="区域1_1_3"/>
+    <protectedRange sqref="K28:R29 K30:K39" name="区域1_1_6"/>
+    <protectedRange sqref="T28:AA29 AC28:AJ29 T30:T39 AC30:AC39" name="区域1_1_1_3"/>
+  </protectedRanges>
+  <mergeCells count="86">
+    <mergeCell ref="AH25:AJ26"/>
+    <mergeCell ref="C30:F31"/>
+    <mergeCell ref="U30:V31"/>
+    <mergeCell ref="N38:R39"/>
+    <mergeCell ref="Y38:AA39"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="T21:T22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="AC21:AC22"/>
     <mergeCell ref="T23:T24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:R26"/>
+    <mergeCell ref="AC23:AC24"/>
     <mergeCell ref="T25:T26"/>
-    <mergeCell ref="Y25:AA26"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:F31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:W31"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AC32:AC33"/>
+    <mergeCell ref="AC34:AC35"/>
+    <mergeCell ref="AC28:AJ28"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AG31"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="T38:T39"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="T32:T33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="K34:K35"/>
     <mergeCell ref="T34:T35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="O38:R39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="Z38:AA39"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="T41:AA41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:G44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:W44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="O51:R52"/>
-    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="T15:AA15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="U17:Y18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC2:AJ2"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AH5"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:V5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>